--- a/xlsx/失业救济_intext.xlsx
+++ b/xlsx/失业救济_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BF%9D%E9%9A%9C</t>
   </si>
   <si>
-    <t>社會保障</t>
+    <t>社会保障</t>
   </si>
   <si>
     <t>政策_政策_社会政策_失业救济</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>失業</t>
+    <t>失业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%BC%80%E5%8F%91%E8%AE%A1%E5%88%92%E7%BD%B2</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%9F%BA%E6%BA%96%E6%B3%95_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>勞動基準法 (中華民國)</t>
+    <t>劳动基准法 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>Template talk-就業</t>
+    <t>Template talk-就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>勞動契約</t>
+    <t>劳动契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%A9%A6</t>
   </si>
   <si>
-    <t>面試</t>
+    <t>面试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E8%81%98</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%A0%AD_(%E6%8B%9B%E8%81%98)</t>
   </si>
   <si>
-    <t>獵頭 (招聘)</t>
+    <t>猎头 (招聘)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E7%94%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>試用期</t>
+    <t>试用期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B5%84</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%81%B7</t>
   </si>
   <si>
-    <t>全職</t>
+    <t>全职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E4%B9%9D%E6%99%9A%E4%BA%94</t>
@@ -143,25 +143,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%BC%E8%81%B7</t>
   </si>
   <si>
-    <t>兼職</t>
+    <t>兼职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AC%E4%BB%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>責任制</t>
+    <t>责任制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E7%8F%AD%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
   </si>
   <si>
-    <t>輪班工作制</t>
+    <t>轮班工作制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E6%80%A7%E5%B7%A5%E6%99%82</t>
   </si>
   <si>
-    <t>彈性工時</t>
+    <t>弹性工时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%8F%AD</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%99%82%E8%A6%8F%E7%AE%A1</t>
   </si>
   <si>
-    <t>工時規管</t>
+    <t>工时规管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%BE%8B%E4%B8%80%E4%BC%91</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%96%AA%E5%81%87</t>
   </si>
   <si>
-    <t>無薪假</t>
+    <t>无薪假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A9%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%81%BD%E5%AE%B3%E5%81%9C%E6%AD%A2%E4%B8%8A%E7%8F%AD%E5%8F%8A%E4%B8%8A%E8%AA%B2%E4%BD%9C%E6%A5%AD%E8%BE%A6%E6%B3%95</t>
   </si>
   <si>
-    <t>天然災害停止上班及上課作業辦法</t>
+    <t>天然灾害停止上班及上课作业办法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%81%87%E8%88%87%E8%82%B2%E5%AC%B0%E5%81%87</t>
   </si>
   <si>
-    <t>產假與育嬰假</t>
+    <t>产假与育婴假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%A4</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E7%97%85</t>
@@ -239,25 +239,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B_(%E9%86%AB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>壓力 (醫學)</t>
+    <t>压力 (医学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E5%A0%B4%E9%9C%B8%E5%87%8C</t>
   </si>
   <si>
-    <t>職場霸凌</t>
+    <t>职场霸凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E4%BF%9D%E9%9A%AA_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>勞工保險 (中華民國)</t>
+    <t>劳工保险 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E9%99%A9%E4%B8%80%E9%87%91</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>員工福利</t>
+    <t>员工福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8D%88%E8%8C%B6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AF%80%E7%8D%8E%E9%87%91</t>
   </si>
   <si>
-    <t>三節獎金</t>
+    <t>三节奖金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9A%E7%89%99</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E9%A4%90%E9%A3%B2</t>
   </si>
   <si>
-    <t>員工餐飲</t>
+    <t>员工餐饮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E5%83%B9</t>
   </si>
   <si>
-    <t>員工價</t>
+    <t>员工价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%83%B1</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%93%A1</t>
   </si>
   <si>
-    <t>裁員</t>
+    <t>裁员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%B2%97</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E8%81%B7</t>
   </si>
   <si>
-    <t>辭職</t>
+    <t>辞职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E6%95%91%E5%8A%A9</t>
   </si>
   <si>
-    <t>失業救助</t>
+    <t>失业救助</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>經理</t>
+    <t>经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%99%82%E5%B7%A5</t>
   </si>
   <si>
-    <t>臨時工</t>
+    <t>临时工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1%E6%B4%BE%E9%81%A3</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%AD%B8%E5%90%88%E4%BD%9C</t>
   </si>
   <si>
-    <t>產學合作</t>
+    <t>产学合作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%83%B1%E4%BA%BA%E5%A3%AB</t>
@@ -437,55 +437,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%B7%E6%A5%AD%E8%80%85</t>
   </si>
   <si>
-    <t>自由職業者</t>
+    <t>自由职业者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>居家就業</t>
+    <t>居家就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%90%88%E5%90%8C%E4%BA%BA</t>
   </si>
   <si>
-    <t>獨立合同人</t>
+    <t>独立合同人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E9%A1%98%E8%80%85</t>
   </si>
   <si>
-    <t>志願者</t>
+    <t>志愿者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>集體協商</t>
+    <t>集体协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%95%B6%E5%8B%9E%E5%8B%95%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>不當勞動行為</t>
+    <t>不当劳动行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>勞工運動</t>
+    <t>劳工运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E5%B7%A5</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E5%83%B9%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>廉價勞工</t>
+    <t>廉价劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B8%82%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>黑市勞工</t>
+    <t>黑市劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%B4%A9%E5%8D%96</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E8%BF%AB%E5%8B%9E%E5%8B%95</t>
   </si>
   <si>
-    <t>強迫勞動</t>
+    <t>强迫劳动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E8%BA%AB%E5%B7%A5</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AD%A7%E8%A6%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性別歧視主義</t>
+    <t>性别歧视主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>層壓式推銷</t>
+    <t>层压式推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E4%B9%A0</t>
@@ -551,37 +551,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A3%E6%95%A3%E8%B2%BB</t>
   </si>
   <si>
-    <t>遣散費</t>
+    <t>遣散费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E8%B3%87%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>勞資爭議</t>
+    <t>劳资争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E6%A5%AD%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>競業條款</t>
+    <t>竞业条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%B2%A7%E7%AA%AE</t>
   </si>
   <si>
-    <t>工作貧窮</t>
+    <t>工作贫穷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%97%E9%82%8A%E6%97%8F</t>
   </si>
   <si>
-    <t>窗邊族</t>
+    <t>窗边族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>辦公室政治</t>
+    <t>办公室政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E4%BF%9D%E9%9A%AA</t>
